--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N2">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q2">
-        <v>195.760003218728</v>
+        <v>4.197433917299001</v>
       </c>
       <c r="R2">
-        <v>1761.840028968552</v>
+        <v>37.77690525569101</v>
       </c>
       <c r="S2">
-        <v>0.1416356783959727</v>
+        <v>0.006286637607177472</v>
       </c>
       <c r="T2">
-        <v>0.1416356783959728</v>
+        <v>0.006286637607177472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.58558</v>
       </c>
       <c r="O3">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P3">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q3">
-        <v>107.7040439540578</v>
+        <v>43.86120241332667</v>
       </c>
       <c r="R3">
-        <v>969.3363955865202</v>
+        <v>394.75082171994</v>
       </c>
       <c r="S3">
-        <v>0.07792570024826832</v>
+        <v>0.06569239445348501</v>
       </c>
       <c r="T3">
-        <v>0.07792570024826834</v>
+        <v>0.06569239445348501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.098744</v>
       </c>
       <c r="O4">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P4">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q4">
-        <v>618.0523995652818</v>
+        <v>251.6945548575547</v>
       </c>
       <c r="R4">
-        <v>5562.471596087536</v>
+        <v>2265.250993717992</v>
       </c>
       <c r="S4">
-        <v>0.4471713805545793</v>
+        <v>0.3769713794821327</v>
       </c>
       <c r="T4">
-        <v>0.4471713805545794</v>
+        <v>0.3769713794821327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N5">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q5">
-        <v>60.655123174816</v>
+        <v>3.193587867890667</v>
       </c>
       <c r="R5">
-        <v>545.8961085733441</v>
+        <v>28.742290811016</v>
       </c>
       <c r="S5">
-        <v>0.04388500908154089</v>
+        <v>0.004783143698668746</v>
       </c>
       <c r="T5">
-        <v>0.04388500908154089</v>
+        <v>0.004783143698668746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
         <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>1.58558</v>
       </c>
       <c r="O6">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P6">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q6">
         <v>33.37148521171556</v>
       </c>
       <c r="R6">
-        <v>300.3433669054401</v>
+        <v>300.34336690544</v>
       </c>
       <c r="S6">
-        <v>0.02414483484535579</v>
+        <v>0.04998159305729776</v>
       </c>
       <c r="T6">
-        <v>0.02414483484535579</v>
+        <v>0.04998159305729776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
         <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.098744</v>
       </c>
       <c r="O7">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P7">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q7">
         <v>191.5000194510436</v>
@@ -880,10 +880,10 @@
         <v>1723.500175059392</v>
       </c>
       <c r="S7">
-        <v>0.1385535079782615</v>
+        <v>0.2868160042006898</v>
       </c>
       <c r="T7">
-        <v>0.1385535079782615</v>
+        <v>0.2868160042006898</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N8">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q8">
-        <v>37.195770203112</v>
+        <v>1.958415946418</v>
       </c>
       <c r="R8">
-        <v>334.761931828008</v>
+        <v>17.625743517762</v>
       </c>
       <c r="S8">
-        <v>0.02691176981792403</v>
+        <v>0.002933185270292473</v>
       </c>
       <c r="T8">
-        <v>0.02691176981792404</v>
+        <v>0.002933185270292473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>1.58558</v>
       </c>
       <c r="O9">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P9">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q9">
         <v>20.46452187878667</v>
@@ -1004,10 +1004,10 @@
         <v>184.18069690908</v>
       </c>
       <c r="S9">
-        <v>0.01480642823709292</v>
+        <v>0.03065040102855822</v>
       </c>
       <c r="T9">
-        <v>0.01480642823709293</v>
+        <v>0.03065040102855822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.098744</v>
       </c>
       <c r="O10">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P10">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q10">
         <v>117.4342799842827</v>
@@ -1066,10 +1066,10 @@
         <v>1056.908519858544</v>
       </c>
       <c r="S10">
-        <v>0.08496569084100443</v>
+        <v>0.1758852612016978</v>
       </c>
       <c r="T10">
-        <v>0.08496569084100444</v>
+        <v>0.1758852612016978</v>
       </c>
     </row>
   </sheetData>
